--- a/data-mahasiswa.xlsx
+++ b/data-mahasiswa.xlsx
@@ -9,7 +9,6 @@
   <sheets>
     <sheet name="mahasiswa" sheetId="1" r:id="rId1"/>
     <sheet name="dosen" sheetId="2" r:id="rId2"/>
-    <sheet name="jadwal" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -987,13 +986,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="2" max="2" width="37.140625" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
   </cols>
@@ -1672,9 +1671,9 @@
   <dimension ref="A1:R112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F17" sqref="F17"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7959,16 +7958,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data-mahasiswa.xlsx
+++ b/data-mahasiswa.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="208">
   <si>
     <t>nim</t>
   </si>
@@ -636,6 +636,9 @@
   </si>
   <si>
     <t>PA SAID AL FARABY</t>
+  </si>
+  <si>
+    <t>PA KURNIAWAN</t>
   </si>
 </sst>
 </file>
@@ -987,7 +990,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1671,9 +1674,9 @@
   <dimension ref="A1:R112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F17" sqref="F17"/>
-      <selection pane="bottomLeft" activeCell="G93" sqref="G93"/>
+      <selection pane="bottomLeft" activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2922,7 +2925,7 @@
         <v>33</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -4879,10 +4882,10 @@
         <v>80</v>
       </c>
       <c r="B58" t="s">
-        <v>46</v>
+        <v>207</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D58">
         <v>1</v>
